--- a/output/SharedMedicinesList/patient-mhr-1.xlsx
+++ b/output/SharedMedicinesList/patient-mhr-1.xlsx
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-pat-0:If there is a birth time its date shall be the birth date {birthDate.extension.where(url='http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}inv-dh-pat-01:If present, a general practitioner shall at least have a reference, an identifier or a display {generalPractitioner.exists() implies generalPractitioner.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-pat-02:If present, a managing organisation shall at least have a reference, an identifier or a display {managingOrganization.exists() implies (managingOrganization.reference.exists() or managingOrganization.identifier.exists() or managingOrganization.display.exists())}inv-dh-pat-03:The patient shall have at least one family name {name.family.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-pat-0:If there is a birth time its date shall be the birth date {birthDate.extension.where(url='http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}inv-dh-pat-01:If present, a general practitioner shall at least have a reference, an identifier or a display {generalPractitioner.exists() implies generalPractitioner.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-pat-02:If present, a managing organisation shall at least have a reference, an identifier or a display {managingOrganization.exists() implies (managingOrganization.reference.exists() or managingOrganization.identifier.exists() or managingOrganization.display.exists())}inv-dh-pat-03:One patient name shall have at least a family name {name.family.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -728,7 +728,7 @@
     <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
